--- a/0.EJEMPLOS_EXAMPLES/NUM ROMANOS/NUM ROMANOS - FORMULA FILE.xlsx
+++ b/0.EJEMPLOS_EXAMPLES/NUM ROMANOS/NUM ROMANOS - FORMULA FILE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AHGM\0. APLICACIONES\FastTest PlugIn\0.EJEMPLOS_EXAMPLES\NUM ROMANOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\FTP\z. V8.0\0.EJEMPLOS_EXAMPLES\NUM ROMANOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB09D6D-0A9F-4A87-B410-3C013B03B960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10920" tabRatio="805" activeTab="4"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12266" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas DG" sheetId="9" r:id="rId1"/>
@@ -22,198 +23,28 @@
     <sheet name="Formulas EN" sheetId="5" r:id="rId8"/>
     <sheet name="Formulas CL" sheetId="6" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="Dato_01" localSheetId="8">'Formulas CL'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="0">'Formulas DG'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="4">'Formulas EM'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="7">'Formulas EN'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="2">'Formulas O2'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="1">'Formulas OM'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="6">'Formulas PP'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="5">'Formulas RC'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="3">'Formulas VF'!$Y$5</definedName>
-    <definedName name="Dato_02" localSheetId="8">'Formulas CL'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="0">'Formulas DG'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="4">'Formulas EM'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="7">'Formulas EN'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="2">'Formulas O2'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="1">'Formulas OM'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="6">'Formulas PP'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="5">'Formulas RC'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="3">'Formulas VF'!$Y$7</definedName>
-    <definedName name="Dato_03" localSheetId="8">'Formulas CL'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="0">'Formulas DG'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="4">'Formulas EM'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="7">'Formulas EN'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="2">'Formulas O2'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="1">'Formulas OM'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="6">'Formulas PP'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="5">'Formulas RC'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="3">'Formulas VF'!$Y$9</definedName>
-    <definedName name="Dato_04" localSheetId="8">'Formulas CL'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="0">'Formulas DG'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="4">'Formulas EM'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="7">'Formulas EN'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="2">'Formulas O2'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="1">'Formulas OM'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="6">'Formulas PP'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="5">'Formulas RC'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="3">'Formulas VF'!$Y$11</definedName>
-    <definedName name="Dato_05" localSheetId="8">'Formulas CL'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="0">'Formulas DG'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="4">'Formulas EM'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="7">'Formulas EN'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="2">'Formulas O2'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="1">'Formulas OM'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="6">'Formulas PP'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="5">'Formulas RC'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="3">'Formulas VF'!$Y$13</definedName>
-    <definedName name="Dato_06" localSheetId="8">'Formulas CL'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="0">'Formulas DG'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="4">'Formulas EM'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="7">'Formulas EN'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="2">'Formulas O2'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="1">'Formulas OM'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="6">'Formulas PP'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="5">'Formulas RC'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="3">'Formulas VF'!$Y$15</definedName>
-    <definedName name="Dato_07" localSheetId="8">'Formulas CL'!$Y$17</definedName>
-    <definedName name="Dato_07" localSheetId="1">'Formulas OM'!$Y$17</definedName>
-    <definedName name="Dato_07" localSheetId="6">'Formulas PP'!$Y$17</definedName>
-    <definedName name="Dato_08" localSheetId="8">'Formulas CL'!$Y$19</definedName>
-    <definedName name="Dato_08" localSheetId="6">'Formulas PP'!$Y$19</definedName>
-    <definedName name="Dato_10" localSheetId="8">'Formulas CL'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="0">'Formulas DG'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="4">'Formulas EM'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="7">'Formulas EN'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="2">'Formulas O2'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="1">'Formulas OM'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="6">'Formulas PP'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="5">'Formulas RC'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="3">'Formulas VF'!$Y$23</definedName>
-    <definedName name="Dato_11" localSheetId="8">'Formulas CL'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="0">'Formulas DG'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="4">'Formulas EM'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="7">'Formulas EN'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="2">'Formulas O2'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="1">'Formulas OM'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="6">'Formulas PP'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="5">'Formulas RC'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="3">'Formulas VF'!$Y$25</definedName>
-    <definedName name="Dato_12" localSheetId="8">'Formulas CL'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="0">'Formulas DG'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="4">'Formulas EM'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="7">'Formulas EN'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="2">'Formulas O2'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="1">'Formulas OM'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="6">'Formulas PP'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="5">'Formulas RC'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="3">'Formulas VF'!$Y$27</definedName>
-    <definedName name="Dato_13" localSheetId="8">'Formulas CL'!$Y$29</definedName>
-    <definedName name="Dato_14" localSheetId="8">'Formulas CL'!$Y$31</definedName>
-    <definedName name="Dato_15" localSheetId="8">'Formulas CL'!$Y$33</definedName>
-    <definedName name="Dato_16" localSheetId="8">'Formulas CL'!$Y$35</definedName>
-    <definedName name="Dato_17" localSheetId="8">'Formulas CL'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="0">'Formulas DG'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="4">'Formulas EM'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="7">'Formulas EN'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="2">'Formulas O2'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="1">'Formulas OM'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="6">'Formulas PP'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="5">'Formulas RC'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="3">'Formulas VF'!$AA$5</definedName>
-    <definedName name="Dato_18" localSheetId="8">'Formulas CL'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="0">'Formulas DG'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="4">'Formulas EM'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="7">'Formulas EN'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="2">'Formulas O2'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="1">'Formulas OM'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="6">'Formulas PP'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="5">'Formulas RC'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="3">'Formulas VF'!$AA$7</definedName>
-    <definedName name="Dato_19" localSheetId="8">'Formulas CL'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="0">'Formulas DG'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="4">'Formulas EM'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="7">'Formulas EN'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="2">'Formulas O2'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="1">'Formulas OM'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="6">'Formulas PP'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="5">'Formulas RC'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="3">'Formulas VF'!$AA$9</definedName>
-    <definedName name="Dato_20" localSheetId="8">'Formulas CL'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="0">'Formulas DG'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="4">'Formulas EM'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="7">'Formulas EN'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="2">'Formulas O2'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="1">'Formulas OM'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="6">'Formulas PP'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="5">'Formulas RC'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="3">'Formulas VF'!$AA$11</definedName>
-    <definedName name="Dato_21" localSheetId="8">'Formulas CL'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="0">'Formulas DG'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="4">'Formulas EM'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="7">'Formulas EN'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="2">'Formulas O2'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="1">'Formulas OM'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="6">'Formulas PP'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="5">'Formulas RC'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="3">'Formulas VF'!$AA$13</definedName>
-    <definedName name="Dato_22" localSheetId="8">'Formulas CL'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="0">'Formulas DG'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="4">'Formulas EM'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="7">'Formulas EN'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="2">'Formulas O2'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="1">'Formulas OM'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="6">'Formulas PP'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="5">'Formulas RC'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="3">'Formulas VF'!$AA$15</definedName>
-    <definedName name="Dato_23" localSheetId="8">'Formulas CL'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="0">'Formulas DG'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="4">'Formulas EM'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="7">'Formulas EN'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="2">'Formulas O2'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="1">'Formulas OM'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="6">'Formulas PP'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="5">'Formulas RC'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="3">'Formulas VF'!$AA$17</definedName>
-    <definedName name="Dato_24" localSheetId="8">'Formulas CL'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="0">'Formulas DG'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="4">'Formulas EM'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="7">'Formulas EN'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="2">'Formulas O2'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="1">'Formulas OM'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="6">'Formulas PP'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="5">'Formulas RC'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="3">'Formulas VF'!$AA$19</definedName>
-    <definedName name="Dato_25" localSheetId="8">'Formulas CL'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="0">'Formulas DG'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="4">'Formulas EM'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="7">'Formulas EN'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="2">'Formulas O2'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="1">'Formulas OM'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="6">'Formulas PP'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="5">'Formulas RC'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="3">'Formulas VF'!$AA$21</definedName>
-    <definedName name="Dato_26" localSheetId="8">'Formulas CL'!$AA$23</definedName>
-    <definedName name="Dato_27" localSheetId="8">'Formulas CL'!$AA$25</definedName>
-    <definedName name="Dato_28" localSheetId="8">'Formulas CL'!$AA$27</definedName>
-    <definedName name="Dato_29" localSheetId="8">'Formulas CL'!$AA$29</definedName>
-    <definedName name="Dato_30" localSheetId="8">'Formulas CL'!$AA$31</definedName>
-    <definedName name="Dato_31" localSheetId="8">'Formulas CL'!$AA$33</definedName>
-    <definedName name="Dato_32" localSheetId="8">'Formulas CL'!$AA$35</definedName>
-    <definedName name="RC_1">'Formulas RC'!$F$15</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="255">
   <si>
     <t>DATO_01</t>
   </si>
@@ -713,9 +544,6 @@
     <t>SubCat_12</t>
   </si>
   <si>
-    <t>V - 7.0</t>
-  </si>
-  <si>
     <t>Debes estudiar más.</t>
   </si>
   <si>
@@ -771,12 +599,225 @@
   </si>
   <si>
     <t>NUM ROMANOS (CL)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(1;10)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(11;20)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(21;30)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(31;40)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(41;50)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(51;60)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(61;70)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(71;80)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(81;90)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(91;100)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(101;110)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(111;120)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(1;100)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_01)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_01+ALEATORIO.ENTRE(1;3)*10)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_01+ALEATORIO.ENTRE(4;5))</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_01+ALEATORIO.ENTRE(6;8)*10)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_01+ALEATORIO.ENTRE(1;10))</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(2;3)</t>
+  </si>
+  <si>
+    <t>=SI(Dato_04=2;Dato_18;Dato_19)</t>
+  </si>
+  <si>
+    <t>="El Número Romano de "&amp;Dato_01&amp;" es: "&amp;INDIRECTO("Dato_0"&amp;Dato_04)</t>
+  </si>
+  <si>
+    <t>=SI(Dato_20=Dato_18;"VERDADERO";"FALSO")</t>
+  </si>
+  <si>
+    <t>V - 8.0</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(10;100)</t>
+  </si>
+  <si>
+    <t>="Indica los Números Romanos mayores que "&amp;Dato_01&amp;"."</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_01+ALEATORIO.ENTRE(1;5))</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_01+ALEATORIO.ENTRE(6;15))</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_01-ALEATORIO.ENTRE(1;5))</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(MAX(Dato_01-ALEATORIO.ENTRE(6;10);1))</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P01_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P02_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P03_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P04_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P05_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P06_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P07_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P08_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P09_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P10_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P11_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(P12_1)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(5;100)</t>
+  </si>
+  <si>
+    <t>="Escribe el Número Romano de "&amp;Dato_01&amp;"."</t>
+  </si>
+  <si>
+    <t>=MINUSC(RC_1)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_02)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_03)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(Dato_04)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(1;4)</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(5;8)</t>
+  </si>
+  <si>
+    <t>="El Número Romano de "&amp;INDIRECTO("Dato_0"&amp;Dato_17)&amp;" es [["&amp;Dato_17+4&amp;"]]. El Siguiente Número Romano "&amp;INDIRECTO("Dato_0"&amp;Dato_21)&amp;" es [["&amp;Dato_21-4&amp;"]]."</t>
+  </si>
+  <si>
+    <t>=Dato_01</t>
+  </si>
+  <si>
+    <t>=Dato_02</t>
+  </si>
+  <si>
+    <t>=Dato_03</t>
+  </si>
+  <si>
+    <t>=Dato_04</t>
+  </si>
+  <si>
+    <t>=Dato_05</t>
+  </si>
+  <si>
+    <t>=Dato_06</t>
+  </si>
+  <si>
+    <t>=Dato_07</t>
+  </si>
+  <si>
+    <t>=Dato_08</t>
+  </si>
+  <si>
+    <t>=ALEATORIO.ENTRE(15;21)</t>
+  </si>
+  <si>
+    <t>="Escribe todo lo que sepas del Siglo "&amp;NUMERO.ROMANO(Dato_01)&amp;"."</t>
+  </si>
+  <si>
+    <t>=Dato_01+ALEATORIO.ENTRE(1;5)</t>
+  </si>
+  <si>
+    <t>=Dato_01+ALEATORIO.ENTRE(6;10)</t>
+  </si>
+  <si>
+    <t>=Dato_01+ALEATORIO.ENTRE(20;25)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(AB21)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(AB22)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(AB23)</t>
+  </si>
+  <si>
+    <t>=NUMERO.ROMANO(AB24)</t>
+  </si>
+  <si>
+    <t>="Trabajando con Números Romanos:&lt;br&gt;&lt;br&gt;
+1. Selecciona el Número Romano de "&amp;Dato_01&amp;" {1:MC:%100%"&amp;Dato_17&amp;"#Muy Bien~%-50%"&amp;Dato_18&amp;"#Debes estudiar más~%-50%"&amp;Dato_19&amp;"#Debes estudiar más~%-50%"&amp;Dato_20&amp;"#Debes estudiar más}&lt;br&gt;&lt;br&gt;
+2. Escribe el Número Romano de "&amp;Dato_04&amp;" {1:SA:%100%"&amp;Dato_20&amp;"#Muy bien~%50%"&amp;MINUSC(Dato_20)&amp;"#Ten cuidado y escribe en Mayúsculas}&lt;br&gt;&lt;br&gt;
+3. Escribe el número de "&amp;Dato_19&amp;"{1:NUMERICAL:%100%"&amp;Dato_03&amp;":0#Muy bien~%-50%"&amp;Dato_02&amp;":0#Debes estudiar mas}"</t>
+  </si>
+  <si>
+    <t>="El Numero Romano de "&amp;@Dato_01&amp;" es:"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -980,12 +1021,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,41 +1063,25 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1072,6 +1097,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,119 +1398,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="17" customWidth="1"/>
+    <col min="29" max="29" width="25.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="17" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="17" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="17" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -1488,8 +1471,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
         <v>122</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -1502,8 +1485,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27"/>
       <c r="AC6" s="9" t="s">
         <v>134</v>
       </c>
@@ -1514,8 +1497,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27"/>
       <c r="AC7" s="9" t="s">
         <v>135</v>
       </c>
@@ -1526,8 +1509,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27"/>
       <c r="AC8" s="9" t="s">
         <v>136</v>
       </c>
@@ -1538,8 +1521,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="27"/>
       <c r="AC9" s="9" t="s">
         <v>137</v>
       </c>
@@ -1550,8 +1533,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27"/>
       <c r="AC10" s="9" t="s">
         <v>138</v>
       </c>
@@ -1562,8 +1545,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27"/>
       <c r="AC11" s="9" t="s">
         <v>139</v>
       </c>
@@ -1574,8 +1557,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27"/>
       <c r="AC12" s="9" t="s">
         <v>140</v>
       </c>
@@ -1586,8 +1569,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27"/>
       <c r="AC13" s="9" t="s">
         <v>141</v>
       </c>
@@ -1598,8 +1581,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="27"/>
       <c r="AC14" s="9" t="s">
         <v>142</v>
       </c>
@@ -1610,8 +1593,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27"/>
       <c r="AC15" s="9" t="s">
         <v>143</v>
       </c>
@@ -1622,8 +1605,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27"/>
       <c r="AC16" s="9" t="s">
         <v>144</v>
       </c>
@@ -1634,8 +1617,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="AC17" s="9" t="s">
         <v>145</v>
       </c>
@@ -1646,8 +1629,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27"/>
       <c r="AC18" s="9" t="s">
         <v>146</v>
       </c>
@@ -1658,8 +1641,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27"/>
       <c r="AC19" s="9" t="s">
         <v>147</v>
       </c>
@@ -1670,8 +1653,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27"/>
       <c r="AC20" s="9" t="s">
         <v>148</v>
       </c>
@@ -1682,8 +1665,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
         <v>123</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -1696,8 +1679,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
       <c r="AC22" s="9" t="s">
         <v>150</v>
       </c>
@@ -1708,8 +1691,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
       <c r="AC23" s="9" t="s">
         <v>151</v>
       </c>
@@ -1720,8 +1703,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27"/>
       <c r="AC24" s="11" t="s">
         <v>152</v>
       </c>
@@ -1732,8 +1715,8 @@
       <c r="AP24" s="12"/>
       <c r="AS24" s="12"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
       <c r="AC25" s="7" t="s">
         <v>154</v>
       </c>
@@ -1744,8 +1727,8 @@
       <c r="AP25" s="8"/>
       <c r="AS25" s="8"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
       <c r="AC26" s="9" t="s">
         <v>155</v>
       </c>
@@ -1756,8 +1739,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27"/>
       <c r="AC27" s="9" t="s">
         <v>156</v>
       </c>
@@ -1768,8 +1751,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
       <c r="AC28" s="9" t="s">
         <v>157</v>
       </c>
@@ -1780,8 +1763,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
       <c r="AC29" s="9" t="s">
         <v>158</v>
       </c>
@@ -1792,8 +1775,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
       <c r="AC30" s="9" t="s">
         <v>159</v>
       </c>
@@ -1804,8 +1787,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
       <c r="AC31" s="9" t="s">
         <v>160</v>
       </c>
@@ -1816,8 +1799,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
       <c r="AC32" s="9" t="s">
         <v>161</v>
       </c>
@@ -1828,8 +1811,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="27"/>
       <c r="AC33" s="9" t="s">
         <v>162</v>
       </c>
@@ -1840,8 +1823,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
       <c r="AC34" s="9" t="s">
         <v>163</v>
       </c>
@@ -1852,8 +1835,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27"/>
       <c r="AC35" s="9" t="s">
         <v>164</v>
       </c>
@@ -1864,8 +1847,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
       <c r="AC36" s="11" t="s">
         <v>165</v>
       </c>
@@ -1876,9 +1859,9 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" s="24" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
-        <v>166</v>
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -1888,7 +1871,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -1899,8 +1882,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>124</v>
       </c>
       <c r="AD39" s="8"/>
@@ -1910,8 +1893,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>125</v>
       </c>
       <c r="AD40" s="10"/>
@@ -1921,8 +1904,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>126</v>
       </c>
       <c r="AD41" s="10"/>
@@ -1932,8 +1915,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>127</v>
       </c>
       <c r="AD42" s="10"/>
@@ -1943,8 +1926,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>128</v>
       </c>
       <c r="AD43" s="10"/>
@@ -1954,8 +1937,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>129</v>
       </c>
       <c r="AD44" s="10"/>
@@ -1965,8 +1948,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>131</v>
       </c>
       <c r="AD45" s="10"/>
@@ -1976,8 +1959,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>130</v>
       </c>
       <c r="AD46" s="10"/>
@@ -1987,8 +1970,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>132</v>
       </c>
       <c r="AD47" s="10"/>
@@ -1998,8 +1981,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC48" s="15" t="s">
+    <row r="48" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC48" s="11" t="s">
         <v>153</v>
       </c>
       <c r="AD48" s="12"/>
@@ -2009,89 +1992,11 @@
       <c r="AP48" s="12"/>
       <c r="AS48" s="12"/>
     </row>
-    <row r="49" spans="29:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AC49" s="25"/>
-    </row>
-    <row r="50" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="29:29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="AC49" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lj31+IbYF4wGfreO8YMyBY+n2+BtKI90+nx7gQxzKBkWiJ7VScGPUlWnIdYuFDOFb3qowKzbhfCaqPH6wBrjlQ==" saltValue="WWRnV3GO8Ln/t9h0XOsAXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zF1LcP4fsViw04E1VFmHE1+1KrGPDH3Tt4iwGPOG0/JfouJwLfgc388ilXycAOD+KcijZul0lWX1/gt3JmG10w==" saltValue="3W2i2PG98gO/3sdL7kdI0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -2102,119 +2007,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="29" ySplit="1" topLeftCell="AD46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD57" sqref="AD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
       <c r="AD1" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
         <v>OK</v>
       </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
-        <f ca="1">COUNTA(AD5:AD36)</f>
+        <f>COUNTA(AD5:AD36)</f>
         <v>1</v>
       </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
-        <f ca="1">COUNTA(AD39:AD79)</f>
+        <f>COUNTA(AD39:AD79)</f>
         <v>14</v>
       </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>1</v>
@@ -2223,7 +2083,7 @@
         <v>121</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -2231,16 +2091,15 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
         <v>105</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AD5" s="8">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>71</v>
+      <c r="AD5" s="26" t="s">
+        <v>198</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -2248,8 +2107,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -2260,8 +2119,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -2272,8 +2131,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -2284,8 +2143,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="27"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2296,8 +2155,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -2308,8 +2167,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -2320,8 +2179,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -2332,8 +2191,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -2344,8 +2203,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="27"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -2356,8 +2215,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -2368,8 +2227,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -2380,8 +2239,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2392,8 +2251,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2404,8 +2263,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -2416,8 +2275,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -2428,8 +2287,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
         <v>106</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -2442,8 +2301,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -2454,8 +2313,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -2466,8 +2325,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -2478,8 +2337,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -2490,8 +2349,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -2502,8 +2361,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -2514,8 +2373,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -2526,8 +2385,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -2538,8 +2397,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -2550,8 +2409,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2562,8 +2421,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -2574,8 +2433,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="27"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -2586,8 +2445,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -2598,8 +2457,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -2610,8 +2469,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -2622,10 +2481,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas DG'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -2635,7 +2494,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -2646,12 +2505,12 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG39" s="8"/>
       <c r="AJ39" s="8"/>
@@ -2659,13 +2518,12 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD40" s="10" t="str">
-        <f>"El Numero Romano de "&amp;Dato_01&amp;" es:"</f>
-        <v>El Numero Romano de  es:</v>
+      <c r="AD40" s="24" t="s">
+        <v>254</v>
       </c>
       <c r="AG40" s="10"/>
       <c r="AJ40" s="10"/>
@@ -2673,13 +2531,12 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AD41" s="10" t="str">
-        <f>ROMAN(Dato_01)</f>
-        <v/>
+      <c r="AD41" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="AG41" s="10"/>
       <c r="AJ41" s="10"/>
@@ -2687,13 +2544,12 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AD42" s="10" t="str">
-        <f ca="1">ROMAN(Dato_01+RANDBETWEEN(1,3)*10)</f>
-        <v>XX</v>
+      <c r="AD42" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="AG42" s="10"/>
       <c r="AJ42" s="10"/>
@@ -2701,13 +2557,12 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AD43" s="10" t="str">
-        <f ca="1">ROMAN(Dato_01+RANDBETWEEN(4,5))</f>
-        <v>IV</v>
+      <c r="AD43" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="AG43" s="10"/>
       <c r="AJ43" s="10"/>
@@ -2715,13 +2570,12 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AD44" s="10" t="str">
-        <f ca="1">ROMAN(Dato_01+RANDBETWEEN(6,8)*10)</f>
-        <v>LX</v>
+      <c r="AD44" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="AG44" s="10"/>
       <c r="AJ44" s="10"/>
@@ -2729,8 +2583,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AD45" s="10"/>
@@ -2740,8 +2594,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="AD46" s="10"/>
@@ -2751,12 +2605,12 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AD47" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG47" s="10"/>
       <c r="AJ47" s="10"/>
@@ -2764,12 +2618,12 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AD48" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG48" s="10"/>
       <c r="AJ48" s="10"/>
@@ -2777,12 +2631,12 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AD49" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG49" s="10"/>
       <c r="AJ49" s="10"/>
@@ -2790,12 +2644,12 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="AD50" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG50" s="10"/>
       <c r="AJ50" s="10"/>
@@ -2803,8 +2657,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="AD51" s="10"/>
@@ -2814,8 +2668,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AD52" s="10"/>
@@ -2825,8 +2679,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="AD53" s="10">
@@ -2838,8 +2692,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AD54" s="10">
@@ -2851,8 +2705,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AD55" s="10">
@@ -2864,8 +2718,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AD56" s="10">
@@ -2877,8 +2731,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AD57" s="10"/>
@@ -2888,30 +2742,30 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC58" s="16" t="s">
+    <row r="58" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AJ58" s="26"/>
-      <c r="AM58" s="26"/>
-      <c r="AP58" s="26"/>
-      <c r="AS58" s="26"/>
-    </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="18" t="s">
+      <c r="AD58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AM58" s="20"/>
+      <c r="AP58" s="20"/>
+      <c r="AS58" s="20"/>
+    </row>
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AP59" s="27"/>
-      <c r="AS59" s="27"/>
-    </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+      <c r="AD59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AM59" s="21"/>
+      <c r="AP59" s="21"/>
+      <c r="AS59" s="21"/>
+    </row>
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD60" s="10"/>
@@ -2921,8 +2775,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD61" s="10"/>
@@ -2932,8 +2786,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD62" s="10"/>
@@ -2943,8 +2797,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC63" s="15" t="s">
+    <row r="63" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC63" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD63" s="12"/>
@@ -2954,72 +2808,9 @@
       <c r="AP63" s="12"/>
       <c r="AS63" s="12"/>
     </row>
-    <row r="64" spans="29:45" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6F/IxEwX6T1en8CnhT8uF4mgXigx9MvKEsoFsirVOdsQfChP2cMap58L8qd27UEaT7uRgfU1tlD7OKNHdbyOFg==" saltValue="IiSxCR7rL0401vDVhyEq5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lULXXzw0+l/9oEiwRlIHHeIDxMCANGYOupI0qI5g3JXglpWPZqskwNd7eDRA1TRibbIAlBb0kt80UV6litK/FA==" saltValue="8DrJKEqISUUn4JgiuGyhzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -3030,119 +2821,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="29" ySplit="1" topLeftCell="AD18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
-        <f ca="1">COUNTA(AD5:AD36)</f>
         <v>1</v>
       </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
-        <f ca="1">COUNTA(AD39:AD79)</f>
         <v>12</v>
       </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>1</v>
@@ -3151,7 +2894,7 @@
         <v>121</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -3159,16 +2902,15 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
         <v>107</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AD5" s="8">
-        <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>74</v>
+      <c r="AD5" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -3176,8 +2918,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -3188,8 +2930,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -3200,8 +2942,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +2954,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="27"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -3224,8 +2966,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -3236,8 +2978,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -3248,8 +2990,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -3260,8 +3002,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -3272,8 +3014,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="27"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -3284,8 +3026,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -3296,8 +3038,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -3308,8 +3050,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -3320,8 +3062,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -3332,8 +3074,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -3344,8 +3086,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -3356,8 +3098,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
         <v>108</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -3370,8 +3112,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -3382,8 +3124,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -3394,8 +3136,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -3406,8 +3148,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -3418,8 +3160,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -3430,8 +3172,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -3442,8 +3184,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -3454,8 +3196,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -3466,8 +3208,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -3478,8 +3220,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -3490,8 +3232,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -3502,8 +3244,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="27"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -3514,8 +3256,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -3526,8 +3268,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -3538,8 +3280,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -3550,10 +3292,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -3563,7 +3305,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -3574,12 +3316,12 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG39" s="8"/>
       <c r="AJ39" s="8"/>
@@ -3587,13 +3329,12 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD40" s="10" t="str">
-        <f>"Indica los Números Romanos mayores que "&amp;Dato_01&amp;"."</f>
-        <v>Indica los Números Romanos mayores que .</v>
+      <c r="AD40" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="AG40" s="10"/>
       <c r="AJ40" s="10"/>
@@ -3601,13 +3342,12 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AD41" s="10" t="str">
-        <f ca="1">ROMAN(Dato_01+RANDBETWEEN(1,5))</f>
-        <v>II</v>
+      <c r="AD41" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="AG41" s="10"/>
       <c r="AJ41" s="10"/>
@@ -3615,13 +3355,12 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AD42" s="10" t="str">
-        <f ca="1">ROMAN(Dato_01+RANDBETWEEN(6,15))</f>
-        <v>VIII</v>
+      <c r="AD42" s="24" t="s">
+        <v>212</v>
       </c>
       <c r="AG42" s="10"/>
       <c r="AJ42" s="10"/>
@@ -3629,13 +3368,12 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AD43" s="10" t="e">
-        <f ca="1">ROMAN(Dato_01-RANDBETWEEN(1,5))</f>
-        <v>#VALUE!</v>
+      <c r="AD43" s="24" t="s">
+        <v>213</v>
       </c>
       <c r="AG43" s="10"/>
       <c r="AJ43" s="10"/>
@@ -3643,13 +3381,12 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AD44" s="10" t="str">
-        <f ca="1">ROMAN(MAX(Dato_01-RANDBETWEEN(6,10),1))</f>
-        <v>I</v>
+      <c r="AD44" s="24" t="s">
+        <v>214</v>
       </c>
       <c r="AG44" s="10"/>
       <c r="AJ44" s="10"/>
@@ -3657,8 +3394,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AD45" s="10"/>
@@ -3668,8 +3405,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="AD46" s="10"/>
@@ -3679,12 +3416,12 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AD47" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG47" s="10"/>
       <c r="AJ47" s="10"/>
@@ -3692,12 +3429,12 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AD48" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG48" s="10"/>
       <c r="AJ48" s="10"/>
@@ -3705,12 +3442,12 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AD49" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG49" s="10"/>
       <c r="AJ49" s="10"/>
@@ -3718,12 +3455,12 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="AD50" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG50" s="10"/>
       <c r="AJ50" s="10"/>
@@ -3731,8 +3468,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="AD51" s="10"/>
@@ -3742,8 +3479,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AD52" s="10"/>
@@ -3753,8 +3490,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="AD53" s="10">
@@ -3766,8 +3503,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AD54" s="10">
@@ -3779,8 +3516,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AD55" s="10"/>
@@ -3790,8 +3527,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AD56" s="10"/>
@@ -3801,8 +3538,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AD57" s="10"/>
@@ -3812,30 +3549,30 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC58" s="16" t="s">
+    <row r="58" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AJ58" s="26"/>
-      <c r="AM58" s="26"/>
-      <c r="AP58" s="26"/>
-      <c r="AS58" s="26"/>
-    </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="18" t="s">
+      <c r="AD58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AM58" s="20"/>
+      <c r="AP58" s="20"/>
+      <c r="AS58" s="20"/>
+    </row>
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AP59" s="27"/>
-      <c r="AS59" s="27"/>
-    </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+      <c r="AD59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AM59" s="21"/>
+      <c r="AP59" s="21"/>
+      <c r="AS59" s="21"/>
+    </row>
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD60" s="10"/>
@@ -3845,8 +3582,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD61" s="10"/>
@@ -3856,8 +3593,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD62" s="10"/>
@@ -3867,8 +3604,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC63" s="15" t="s">
+    <row r="63" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC63" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD63" s="12"/>
@@ -3878,72 +3615,9 @@
       <c r="AP63" s="12"/>
       <c r="AS63" s="12"/>
     </row>
-    <row r="64" spans="29:45" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zXGk1MAWxynZROgFyXM/EO8XcFNr9XmqGQ/+WXZDMwOYMm0DyzqGI4jM14w/82WG3HaEK9RFnerr/2FbZsEkfw==" saltValue="shB5Pa2+rJ574lwu5MIGWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v7dscvcU/5ShVICnrxe2hqc1G+A41Lw7isMZRNdfVtK2uaqLj1ITbTee/FRoWH2pOCQeWnwwQ9raSc2YZCAxuQ==" saltValue="fJYgLKWl0bIaGH6Tnzceqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -3953,119 +3627,71 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="17" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="17" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="17" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="17" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
-        <f ca="1">COUNTA(AD5:AD36)</f>
         <v>7</v>
       </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
-        <f ca="1">COUNTA(AD39:AD79)</f>
         <v>5</v>
       </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>1</v>
@@ -4074,7 +3700,7 @@
         <v>121</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -4082,16 +3708,15 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
         <v>109</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AD5" s="8">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>25</v>
+      <c r="AD5" s="26" t="s">
+        <v>198</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -4099,14 +3724,13 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD6" s="10" t="str">
-        <f>ROMAN(Dato_01)</f>
-        <v/>
+      <c r="AD6" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="AG6" s="10"/>
       <c r="AJ6" s="10"/>
@@ -4114,14 +3738,13 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD7" s="10" t="str">
-        <f ca="1">ROMAN(Dato_01+RANDBETWEEN(1,10))</f>
-        <v>V</v>
+      <c r="AD7" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="AG7" s="10"/>
       <c r="AJ7" s="10"/>
@@ -4129,14 +3752,13 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD8" s="10">
-        <f ca="1">RANDBETWEEN(2,3)</f>
-        <v>3</v>
+      <c r="AD8" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="AG8" s="10"/>
       <c r="AJ8" s="10"/>
@@ -4144,8 +3766,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="27"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -4156,8 +3778,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -4168,8 +3790,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -4180,8 +3802,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -4192,8 +3814,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -4204,8 +3826,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="27"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -4216,8 +3838,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -4228,8 +3850,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -4240,8 +3862,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -4252,8 +3874,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -4264,8 +3886,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -4276,8 +3898,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -4288,8 +3910,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
         <v>110</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -4302,8 +3924,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -4316,8 +3938,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -4330,14 +3952,13 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AD24" s="10">
-        <f>IF(Dato_04=2,Dato_18,Dato_19)</f>
-        <v>0</v>
+      <c r="AD24" s="24" t="s">
+        <v>205</v>
       </c>
       <c r="AG24" s="10"/>
       <c r="AJ24" s="10"/>
@@ -4345,8 +3966,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -4357,8 +3978,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -4369,8 +3990,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -4381,8 +4002,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -4393,8 +4014,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -4405,8 +4026,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -4417,8 +4038,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -4429,8 +4050,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -4441,8 +4062,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="27"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -4453,8 +4074,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -4465,8 +4086,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -4477,8 +4098,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -4489,10 +4110,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" s="24" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -4502,7 +4123,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -4513,12 +4134,12 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG39" s="8"/>
       <c r="AJ39" s="8"/>
@@ -4526,13 +4147,12 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD40" s="10" t="e">
-        <f ca="1">"El Número Romano de "&amp;Dato_01&amp;" es: "&amp;INDIRECT("Dato_0"&amp;Dato_04)</f>
-        <v>#REF!</v>
+      <c r="AD40" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="AG40" s="10"/>
       <c r="AJ40" s="10"/>
@@ -4540,13 +4160,12 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD41" s="10" t="str">
-        <f>IF(Dato_20=Dato_18,"VERDADERO","FALSO")</f>
-        <v>VERDADERO</v>
+      <c r="AD41" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="AG41" s="10"/>
       <c r="AJ41" s="10"/>
@@ -4554,12 +4173,12 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>60</v>
       </c>
       <c r="AD42" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG42" s="10"/>
       <c r="AJ42" s="10"/>
@@ -4567,31 +4186,31 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC43" s="15" t="s">
+    <row r="43" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC43" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AD43" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
+        <v>166</v>
+      </c>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
       <c r="AG43" s="12"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="20"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
       <c r="AJ43" s="12"/>
-      <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
       <c r="AM43" s="12"/>
-      <c r="AN43" s="20"/>
-      <c r="AO43" s="20"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
       <c r="AP43" s="12"/>
-      <c r="AQ43" s="20"/>
-      <c r="AR43" s="20"/>
+      <c r="AQ43" s="17"/>
+      <c r="AR43" s="17"/>
       <c r="AS43" s="12"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="13" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="7" t="s">
         <v>35</v>
       </c>
       <c r="AD44" s="8"/>
@@ -4601,8 +4220,8 @@
       <c r="AP44" s="8"/>
       <c r="AS44" s="8"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD45" s="10"/>
@@ -4612,8 +4231,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD46" s="10"/>
@@ -4623,8 +4242,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD47" s="10"/>
@@ -4634,8 +4253,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC48" s="15" t="s">
+    <row r="48" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC48" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD48" s="12"/>
@@ -4645,89 +4264,11 @@
       <c r="AP48" s="12"/>
       <c r="AS48" s="12"/>
     </row>
-    <row r="49" spans="29:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AC49" s="25"/>
-    </row>
-    <row r="50" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="29:29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="AC49" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kb5iloleQ8XsjqhnbxEUdh+4ZMVREoA1ecXzfmEWmeg45gyFkqBYwbjKCvDSTdNQy0ZIrVv/EpD1hHcGVCzYCQ==" saltValue="sciZWuHGDRNwuCKv7OE3zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M9BVauGm1gx/CR/2Hikmf5+fSTha1vkFc/RtpLLIDxgndgJvgDxk9TYK0R35jMa4lHJ6MZKhtu5zNhVuwePrNw==" saltValue="ovNvm0kICTtc7nPcef5Keg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -4738,119 +4279,71 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:AS130"/>
+  <dimension ref="A1:AS70"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
         <v>0</v>
       </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
-        <f ca="1">COUNTA(AD39:AD79)</f>
         <v>26</v>
       </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>1</v>
@@ -4859,7 +4352,7 @@
         <v>121</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -4867,8 +4360,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
         <v>111</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -4881,8 +4374,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -4893,8 +4386,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -4905,8 +4398,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -4917,8 +4410,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="27"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -4929,8 +4422,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -4941,8 +4434,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -4953,8 +4446,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -4965,8 +4458,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -4977,8 +4470,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="27"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -4989,8 +4482,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -5001,8 +4494,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -5013,8 +4506,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -5025,8 +4518,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -5037,8 +4530,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -5049,8 +4542,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -5061,8 +4554,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -5075,8 +4568,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -5087,8 +4580,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -5099,8 +4592,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -5111,8 +4604,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -5123,8 +4616,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -5135,8 +4628,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -5147,8 +4640,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -5159,8 +4652,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -5171,8 +4664,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -5183,8 +4676,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -5195,8 +4688,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -5207,8 +4700,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="27"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -5219,8 +4712,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -5231,8 +4724,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -5243,8 +4736,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -5255,10 +4748,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -5268,7 +4761,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -5279,12 +4772,12 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG39" s="8"/>
       <c r="AJ39" s="8"/>
@@ -5292,12 +4785,12 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG40" s="10"/>
       <c r="AJ40" s="10"/>
@@ -5305,13 +4798,12 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AD41" s="10">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+      <c r="AD41" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="AG41" s="10"/>
       <c r="AJ41" s="10"/>
@@ -5319,13 +4811,12 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AD42" s="10" t="str">
-        <f>ROMAN(Z42)</f>
-        <v/>
+      <c r="AD42" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="AG42" s="10"/>
       <c r="AJ42" s="10"/>
@@ -5333,13 +4824,12 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AD43" s="10">
-        <f ca="1">RANDBETWEEN(11,20)</f>
-        <v>18</v>
+      <c r="AD43" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="AG43" s="10"/>
       <c r="AJ43" s="10"/>
@@ -5347,13 +4837,12 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AD44" s="10" t="str">
-        <f>ROMAN(Z44)</f>
-        <v/>
+      <c r="AD44" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="AG44" s="10"/>
       <c r="AJ44" s="10"/>
@@ -5361,13 +4850,12 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AD45" s="10">
-        <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>30</v>
+      <c r="AD45" s="24" t="s">
+        <v>188</v>
       </c>
       <c r="AG45" s="10"/>
       <c r="AJ45" s="10"/>
@@ -5375,13 +4863,12 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD46" s="10" t="str">
-        <f>ROMAN(Z46)</f>
-        <v/>
+      <c r="AD46" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="AG46" s="10"/>
       <c r="AJ46" s="10"/>
@@ -5389,13 +4876,12 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD47" s="10">
-        <f ca="1">RANDBETWEEN(31,40)</f>
-        <v>34</v>
+      <c r="AD47" s="24" t="s">
+        <v>189</v>
       </c>
       <c r="AG47" s="10"/>
       <c r="AJ47" s="10"/>
@@ -5403,13 +4889,12 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AD48" s="10" t="str">
-        <f>ROMAN(Z48)</f>
-        <v/>
+      <c r="AD48" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="AG48" s="10"/>
       <c r="AJ48" s="10"/>
@@ -5417,13 +4902,12 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AD49" s="10">
-        <f ca="1">RANDBETWEEN(41,50)</f>
-        <v>50</v>
+      <c r="AD49" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="AG49" s="10"/>
       <c r="AJ49" s="10"/>
@@ -5431,13 +4915,12 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AD50" s="10" t="str">
-        <f>ROMAN(Z50)</f>
-        <v/>
+      <c r="AD50" s="24" t="s">
+        <v>219</v>
       </c>
       <c r="AG50" s="10"/>
       <c r="AJ50" s="10"/>
@@ -5445,13 +4928,12 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AD51" s="10">
-        <f ca="1">RANDBETWEEN(51,60)</f>
-        <v>55</v>
+      <c r="AD51" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AG51" s="10"/>
       <c r="AJ51" s="10"/>
@@ -5459,13 +4941,12 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AD52" s="10" t="str">
-        <f>ROMAN(Z52)</f>
-        <v/>
+      <c r="AD52" s="24" t="s">
+        <v>220</v>
       </c>
       <c r="AG52" s="10"/>
       <c r="AJ52" s="10"/>
@@ -5473,13 +4954,12 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AD53" s="10">
-        <f ca="1">RANDBETWEEN(61,70)</f>
-        <v>69</v>
+      <c r="AD53" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="AG53" s="10"/>
       <c r="AJ53" s="10"/>
@@ -5487,13 +4967,12 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AD54" s="10" t="str">
-        <f>ROMAN(Z54)</f>
-        <v/>
+      <c r="AD54" s="24" t="s">
+        <v>221</v>
       </c>
       <c r="AG54" s="10"/>
       <c r="AJ54" s="10"/>
@@ -5501,13 +4980,12 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AD55" s="10">
-        <f ca="1">RANDBETWEEN(71,80)</f>
-        <v>76</v>
+      <c r="AD55" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="AG55" s="10"/>
       <c r="AJ55" s="10"/>
@@ -5515,13 +4993,12 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AD56" s="10" t="str">
-        <f>ROMAN(Z56)</f>
-        <v/>
+      <c r="AD56" s="24" t="s">
+        <v>222</v>
       </c>
       <c r="AG56" s="10"/>
       <c r="AJ56" s="10"/>
@@ -5529,13 +5006,12 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AD57" s="10">
-        <f ca="1">RANDBETWEEN(81,90)</f>
-        <v>88</v>
+      <c r="AD57" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="AG57" s="10"/>
       <c r="AJ57" s="10"/>
@@ -5543,13 +5019,12 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC58" s="14" t="s">
+    <row r="58" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC58" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AD58" s="10" t="str">
-        <f>ROMAN(Z58)</f>
-        <v/>
+      <c r="AD58" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="AG58" s="10"/>
       <c r="AJ58" s="10"/>
@@ -5557,13 +5032,12 @@
       <c r="AP58" s="10"/>
       <c r="AS58" s="10"/>
     </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="14" t="s">
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AD59" s="10">
-        <f ca="1">RANDBETWEEN(91,100)</f>
-        <v>97</v>
+      <c r="AD59" s="24" t="s">
+        <v>195</v>
       </c>
       <c r="AG59" s="10"/>
       <c r="AJ59" s="10"/>
@@ -5571,13 +5045,12 @@
       <c r="AP59" s="10"/>
       <c r="AS59" s="10"/>
     </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AD60" s="10" t="str">
-        <f>ROMAN(Z60)</f>
-        <v/>
+      <c r="AD60" s="24" t="s">
+        <v>224</v>
       </c>
       <c r="AG60" s="10"/>
       <c r="AJ60" s="10"/>
@@ -5585,13 +5058,12 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AD61" s="10">
-        <f ca="1">RANDBETWEEN(101,110)</f>
-        <v>110</v>
+      <c r="AD61" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="AG61" s="10"/>
       <c r="AJ61" s="10"/>
@@ -5599,13 +5071,12 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AD62" s="10" t="str">
-        <f>ROMAN(Z62)</f>
-        <v/>
+      <c r="AD62" s="24" t="s">
+        <v>225</v>
       </c>
       <c r="AG62" s="10"/>
       <c r="AJ62" s="10"/>
@@ -5613,13 +5084,12 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC63" s="14" t="s">
+    <row r="63" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC63" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AD63" s="10">
-        <f ca="1">RANDBETWEEN(111,120)</f>
-        <v>117</v>
+      <c r="AD63" s="24" t="s">
+        <v>197</v>
       </c>
       <c r="AG63" s="10"/>
       <c r="AJ63" s="10"/>
@@ -5627,33 +5097,32 @@
       <c r="AP63" s="10"/>
       <c r="AS63" s="10"/>
     </row>
-    <row r="64" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC64" s="16" t="s">
+    <row r="64" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD64" s="26" t="str">
-        <f>ROMAN(Z64)</f>
-        <v/>
-      </c>
-      <c r="AG64" s="26"/>
-      <c r="AJ64" s="26"/>
-      <c r="AM64" s="26"/>
-      <c r="AP64" s="26"/>
-      <c r="AS64" s="26"/>
-    </row>
-    <row r="65" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC65" s="18" t="s">
+      <c r="AD64" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG64" s="20"/>
+      <c r="AJ64" s="20"/>
+      <c r="AM64" s="20"/>
+      <c r="AP64" s="20"/>
+      <c r="AS64" s="20"/>
+    </row>
+    <row r="65" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD65" s="27"/>
-      <c r="AG65" s="27"/>
-      <c r="AJ65" s="27"/>
-      <c r="AM65" s="27"/>
-      <c r="AP65" s="27"/>
-      <c r="AS65" s="27"/>
-    </row>
-    <row r="66" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC66" s="14" t="s">
+      <c r="AD65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AS65" s="21"/>
+    </row>
+    <row r="66" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC66" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD66" s="10"/>
@@ -5663,8 +5132,8 @@
       <c r="AP66" s="10"/>
       <c r="AS66" s="10"/>
     </row>
-    <row r="67" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC67" s="14" t="s">
+    <row r="67" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC67" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD67" s="10"/>
@@ -5674,8 +5143,8 @@
       <c r="AP67" s="10"/>
       <c r="AS67" s="10"/>
     </row>
-    <row r="68" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC68" s="14" t="s">
+    <row r="68" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD68" s="10"/>
@@ -5685,8 +5154,8 @@
       <c r="AP68" s="10"/>
       <c r="AS68" s="10"/>
     </row>
-    <row r="69" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC69" s="15" t="s">
+    <row r="69" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC69" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD69" s="12"/>
@@ -5696,69 +5165,9 @@
       <c r="AP69" s="12"/>
       <c r="AS69" s="12"/>
     </row>
-    <row r="70" spans="29:45" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="05+ShBcWZQ6FcZLW69pECPq3Z+5d1Yt0baN/Favial5X4VePkKbEcDVtVmzIYGKHNPGj4L38FG8AnTn2EUb22Q==" saltValue="BSwPmPU8kz/tbMmx7xG0lA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1GqnPTxL2T0Dm6MaXvz9Y23MakD4UmSeRKKy6tt6GG5kPNgzFFp4j/C4xVOAJ46Y5aIC5GtEBP8JYHALtHsgVg==" saltValue="cDfc5yt23g9UF8iJUezx3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -5768,119 +5177,74 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS71"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="29" ySplit="1" topLeftCell="AD32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
       <c r="AD1" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
         <v>OK</v>
       </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
-        <f ca="1">COUNTA(AD5:AD36)</f>
+        <f>COUNTA(AD5:AD36)</f>
         <v>1</v>
       </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
         <f>COUNTA(AD39:AD79)</f>
         <v>9</v>
       </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>1</v>
@@ -5889,7 +5253,7 @@
         <v>121</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -5897,16 +5261,15 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
         <v>113</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AD5" s="8">
-        <f ca="1">RANDBETWEEN(5,100)</f>
-        <v>40</v>
+      <c r="AD5" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -5914,8 +5277,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -5926,8 +5289,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -5938,8 +5301,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -5950,8 +5313,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="27"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -5962,8 +5325,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -5974,8 +5337,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -5986,8 +5349,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -5998,8 +5361,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -6010,8 +5373,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="27"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6022,8 +5385,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -6034,8 +5397,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -6046,8 +5409,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -6058,8 +5421,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -6070,8 +5433,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -6082,8 +5445,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -6094,8 +5457,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
         <v>114</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -6108,8 +5471,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -6120,8 +5483,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -6132,8 +5495,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -6144,8 +5507,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -6156,8 +5519,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -6168,8 +5531,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -6180,8 +5543,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -6192,8 +5555,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -6204,8 +5567,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -6216,8 +5579,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -6228,8 +5591,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -6240,8 +5603,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="27"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -6252,8 +5615,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -6264,8 +5627,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -6276,8 +5639,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -6288,10 +5651,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -6301,7 +5664,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -6312,8 +5675,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AD39" s="8">
@@ -6325,12 +5688,12 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>32</v>
       </c>
       <c r="AD40" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG40" s="10"/>
       <c r="AJ40" s="10"/>
@@ -6338,13 +5701,12 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD41" s="10" t="str">
-        <f>"Escribe el Número Romano de "&amp;Dato_01&amp;"."</f>
-        <v>Escribe el Número Romano de .</v>
+      <c r="AD41" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="AG41" s="10"/>
       <c r="AJ41" s="10"/>
@@ -6352,13 +5714,12 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AD42" s="10" t="str">
-        <f>ROMAN(Dato_01)</f>
-        <v/>
+      <c r="AD42" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="AG42" s="10"/>
       <c r="AJ42" s="10"/>
@@ -6366,8 +5727,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>52</v>
       </c>
       <c r="AD43" s="10">
@@ -6379,12 +5740,12 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>93</v>
       </c>
       <c r="AD44" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG44" s="10"/>
       <c r="AJ44" s="10"/>
@@ -6392,13 +5753,12 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AD45" s="10" t="str">
-        <f>LOWER(RC_1)</f>
-        <v/>
+      <c r="AD45" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="AG45" s="10"/>
       <c r="AJ45" s="10"/>
@@ -6406,8 +5766,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AD46" s="10">
@@ -6419,12 +5779,12 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>94</v>
       </c>
       <c r="AD47" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG47" s="10"/>
       <c r="AJ47" s="10"/>
@@ -6432,8 +5792,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>42</v>
       </c>
       <c r="AD48" s="10"/>
@@ -6443,8 +5803,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AD49" s="10"/>
@@ -6454,8 +5814,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>95</v>
       </c>
       <c r="AD50" s="10"/>
@@ -6465,8 +5825,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AD51" s="10"/>
@@ -6476,8 +5836,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AD52" s="10"/>
@@ -6487,8 +5847,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AD53" s="10"/>
@@ -6498,8 +5858,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AD54" s="10"/>
@@ -6509,8 +5869,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AD55" s="10"/>
@@ -6520,8 +5880,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>97</v>
       </c>
       <c r="AD56" s="10"/>
@@ -6531,8 +5891,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>45</v>
       </c>
       <c r="AD57" s="10"/>
@@ -6542,8 +5902,8 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC58" s="14" t="s">
+    <row r="58" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC58" s="9" t="s">
         <v>57</v>
       </c>
       <c r="AD58" s="10"/>
@@ -6553,8 +5913,8 @@
       <c r="AP58" s="10"/>
       <c r="AS58" s="10"/>
     </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="14" t="s">
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="9" t="s">
         <v>98</v>
       </c>
       <c r="AD59" s="10"/>
@@ -6564,8 +5924,8 @@
       <c r="AP59" s="10"/>
       <c r="AS59" s="10"/>
     </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>99</v>
       </c>
       <c r="AD60" s="10"/>
@@ -6575,8 +5935,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>100</v>
       </c>
       <c r="AD61" s="10"/>
@@ -6586,8 +5946,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>101</v>
       </c>
       <c r="AD62" s="10"/>
@@ -6597,8 +5957,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC63" s="14" t="s">
+    <row r="63" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC63" s="9" t="s">
         <v>102</v>
       </c>
       <c r="AD63" s="10"/>
@@ -6608,8 +5968,8 @@
       <c r="AP63" s="10"/>
       <c r="AS63" s="10"/>
     </row>
-    <row r="64" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC64" s="14" t="s">
+    <row r="64" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC64" s="9" t="s">
         <v>103</v>
       </c>
       <c r="AD64" s="10"/>
@@ -6619,30 +5979,30 @@
       <c r="AP64" s="10"/>
       <c r="AS64" s="10"/>
     </row>
-    <row r="65" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC65" s="16" t="s">
+    <row r="65" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC65" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AD65" s="26"/>
-      <c r="AG65" s="26"/>
-      <c r="AJ65" s="26"/>
-      <c r="AM65" s="26"/>
-      <c r="AP65" s="26"/>
-      <c r="AS65" s="26"/>
-    </row>
-    <row r="66" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC66" s="18" t="s">
+      <c r="AD65" s="20"/>
+      <c r="AG65" s="20"/>
+      <c r="AJ65" s="20"/>
+      <c r="AM65" s="20"/>
+      <c r="AP65" s="20"/>
+      <c r="AS65" s="20"/>
+    </row>
+    <row r="66" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC66" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD66" s="27"/>
-      <c r="AG66" s="27"/>
-      <c r="AJ66" s="27"/>
-      <c r="AM66" s="27"/>
-      <c r="AP66" s="27"/>
-      <c r="AS66" s="27"/>
-    </row>
-    <row r="67" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC67" s="14" t="s">
+      <c r="AD66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AM66" s="21"/>
+      <c r="AP66" s="21"/>
+      <c r="AS66" s="21"/>
+    </row>
+    <row r="67" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC67" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD67" s="10"/>
@@ -6652,8 +6012,8 @@
       <c r="AP67" s="10"/>
       <c r="AS67" s="10"/>
     </row>
-    <row r="68" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC68" s="14" t="s">
+    <row r="68" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC68" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD68" s="10"/>
@@ -6663,8 +6023,8 @@
       <c r="AP68" s="10"/>
       <c r="AS68" s="10"/>
     </row>
-    <row r="69" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC69" s="14" t="s">
+    <row r="69" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC69" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD69" s="10"/>
@@ -6674,8 +6034,8 @@
       <c r="AP69" s="10"/>
       <c r="AS69" s="10"/>
     </row>
-    <row r="70" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC70" s="15" t="s">
+    <row r="70" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC70" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD70" s="12"/>
@@ -6685,7 +6045,7 @@
       <c r="AP70" s="12"/>
       <c r="AS70" s="12"/>
     </row>
-    <row r="71" spans="29:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="29:45" x14ac:dyDescent="0.5">
       <c r="AC71"/>
       <c r="AD71"/>
       <c r="AG71"/>
@@ -6694,64 +6054,8 @@
       <c r="AP71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MaRNiBwzbCU5V9s0zAzGbplSu0GyIXBnCIRHvPTMMYs66eBueOjjd8NwbY2Uq2T9zQSwS8sJxa1ou61B9nh3sA==" saltValue="O87GruSssSVWKWZag+QG6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M0BcBiM1VKjs8zx7tfJMuQ3nYpULQAoJOoie650xaSoMiiZWgAZwmn5jKpBbx2FpXuXGu7rY0xDoIq3Q+QSglQ==" saltValue="LAptfBIUM1TnY6MF+N2skQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -6761,119 +6065,71 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS70"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="29" ySplit="1" topLeftCell="AD31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="28" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="22" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="28" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="22" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="28" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="22" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="28" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="22" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="28" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="22" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="28" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="22" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AS1" s="14"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2" s="17">
-        <f ca="1">COUNTA(AD5:AD36)</f>
+      <c r="AD2" s="14">
         <v>10</v>
       </c>
-      <c r="AG2" s="17">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="17">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2" s="17">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="17">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2" s="17">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AS2" s="14"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3" s="17">
-        <f ca="1">COUNTA(AD39:AD79)</f>
+      <c r="AD3" s="14">
         <v>18</v>
       </c>
-      <c r="AG3" s="17">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="17">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="17">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="17">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3" s="17">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AS3" s="14"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>1</v>
@@ -6882,7 +6138,7 @@
         <v>121</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -6890,16 +6146,15 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AD5" s="8">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+      <c r="AD5" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -6907,14 +6162,13 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD6" s="10">
-        <f ca="1">RANDBETWEEN(11,20)</f>
-        <v>16</v>
+      <c r="AD6" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="AG6" s="10"/>
       <c r="AJ6" s="10"/>
@@ -6922,14 +6176,13 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD7" s="10">
-        <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>24</v>
+      <c r="AD7" s="24" t="s">
+        <v>188</v>
       </c>
       <c r="AG7" s="10"/>
       <c r="AJ7" s="10"/>
@@ -6937,14 +6190,13 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD8" s="10">
-        <f ca="1">RANDBETWEEN(31,40)</f>
-        <v>33</v>
+      <c r="AD8" s="24" t="s">
+        <v>189</v>
       </c>
       <c r="AG8" s="10"/>
       <c r="AJ8" s="10"/>
@@ -6952,14 +6204,13 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="27"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AD9" s="10" t="str">
-        <f>ROMAN(Dato_01)</f>
-        <v/>
+      <c r="AD9" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="AG9" s="10"/>
       <c r="AJ9" s="10"/>
@@ -6967,14 +6218,13 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="10" t="str">
-        <f>ROMAN(Dato_02)</f>
-        <v/>
+      <c r="AD10" s="24" t="s">
+        <v>230</v>
       </c>
       <c r="AG10" s="10"/>
       <c r="AJ10" s="10"/>
@@ -6982,14 +6232,13 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AD11" s="10" t="str">
-        <f>ROMAN(Dato_03)</f>
-        <v/>
+      <c r="AD11" s="24" t="s">
+        <v>231</v>
       </c>
       <c r="AG11" s="10"/>
       <c r="AJ11" s="10"/>
@@ -6997,14 +6246,13 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AD12" s="10" t="str">
-        <f>ROMAN(Dato_04)</f>
-        <v/>
+      <c r="AD12" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="AG12" s="10"/>
       <c r="AJ12" s="10"/>
@@ -7012,8 +6260,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -7024,8 +6272,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="27"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -7036,8 +6284,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -7048,8 +6296,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -7060,8 +6308,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -7072,8 +6320,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -7084,8 +6332,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -7096,8 +6344,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -7108,16 +6356,15 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
         <v>116</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AD21" s="10">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+      <c r="AD21" s="24" t="s">
+        <v>233</v>
       </c>
       <c r="AG21" s="10"/>
       <c r="AJ21" s="10"/>
@@ -7125,8 +6372,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -7137,8 +6384,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -7149,8 +6396,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -7161,14 +6408,13 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AD25" s="10">
-        <f ca="1">RANDBETWEEN(5,8)</f>
-        <v>7</v>
+      <c r="AD25" s="24" t="s">
+        <v>234</v>
       </c>
       <c r="AG25" s="10"/>
       <c r="AJ25" s="10"/>
@@ -7176,8 +6422,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -7188,8 +6434,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -7200,8 +6446,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -7212,8 +6458,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -7224,8 +6470,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -7236,8 +6482,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -7248,8 +6494,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -7260,8 +6506,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="27"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -7272,8 +6518,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -7284,8 +6530,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -7296,8 +6542,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -7308,10 +6554,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -7321,7 +6567,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -7332,12 +6578,12 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG39" s="8"/>
       <c r="AJ39" s="8"/>
@@ -7345,13 +6591,12 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD40" s="10" t="e">
-        <f ca="1">"El Número Romano de "&amp;INDIRECT("Dato_0"&amp;Dato_17)&amp;" es [["&amp;Dato_17+4&amp;"]]. El Siguiente Número Romano "&amp;INDIRECT("Dato_0"&amp;Dato_21)&amp;" es [["&amp;Dato_21-4&amp;"]]."</f>
-        <v>#REF!</v>
+      <c r="AD40" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="AG40" s="10"/>
       <c r="AJ40" s="10"/>
@@ -7359,8 +6604,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AD41" s="10">
@@ -7372,13 +6617,12 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AD42" s="10">
-        <f>Dato_01</f>
-        <v>0</v>
+      <c r="AD42" s="24" t="s">
+        <v>236</v>
       </c>
       <c r="AG42" s="10"/>
       <c r="AJ42" s="10"/>
@@ -7386,8 +6630,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AD43" s="10">
@@ -7399,13 +6643,12 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AD44" s="10">
-        <f>Dato_02</f>
-        <v>0</v>
+      <c r="AD44" s="24" t="s">
+        <v>237</v>
       </c>
       <c r="AG44" s="10"/>
       <c r="AJ44" s="10"/>
@@ -7413,8 +6656,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>66</v>
       </c>
       <c r="AD45" s="10">
@@ -7426,13 +6669,12 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD46" s="10">
-        <f>Dato_03</f>
-        <v>0</v>
+      <c r="AD46" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="AG46" s="10"/>
       <c r="AJ46" s="10"/>
@@ -7440,8 +6682,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>68</v>
       </c>
       <c r="AD47" s="10">
@@ -7453,13 +6695,12 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AD48" s="10">
-        <f>Dato_04</f>
-        <v>0</v>
+      <c r="AD48" s="24" t="s">
+        <v>239</v>
       </c>
       <c r="AG48" s="10"/>
       <c r="AJ48" s="10"/>
@@ -7467,8 +6708,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>70</v>
       </c>
       <c r="AD49" s="10">
@@ -7480,13 +6721,12 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AD50" s="10">
-        <f>Dato_05</f>
-        <v>0</v>
+      <c r="AD50" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="AG50" s="10"/>
       <c r="AJ50" s="10"/>
@@ -7494,8 +6734,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>72</v>
       </c>
       <c r="AD51" s="10">
@@ -7507,13 +6747,12 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AD52" s="10">
-        <f>Dato_06</f>
-        <v>0</v>
+      <c r="AD52" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="AG52" s="10"/>
       <c r="AJ52" s="10"/>
@@ -7521,8 +6760,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>74</v>
       </c>
       <c r="AD53" s="10">
@@ -7534,13 +6773,12 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AD54" s="10">
-        <f>Dato_07</f>
-        <v>0</v>
+      <c r="AD54" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="AG54" s="10"/>
       <c r="AJ54" s="10"/>
@@ -7548,8 +6786,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>76</v>
       </c>
       <c r="AD55" s="10">
@@ -7561,13 +6799,12 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AD56" s="10">
-        <f>Dato_08</f>
-        <v>0</v>
+      <c r="AD56" s="24" t="s">
+        <v>243</v>
       </c>
       <c r="AG56" s="10"/>
       <c r="AJ56" s="10"/>
@@ -7575,8 +6812,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>61</v>
       </c>
       <c r="AD57" s="10"/>
@@ -7586,8 +6823,8 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC58" s="14" t="s">
+    <row r="58" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC58" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD58" s="10"/>
@@ -7597,8 +6834,8 @@
       <c r="AP58" s="10"/>
       <c r="AS58" s="10"/>
     </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="14" t="s">
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="9" t="s">
         <v>79</v>
       </c>
       <c r="AD59" s="10"/>
@@ -7608,8 +6845,8 @@
       <c r="AP59" s="10"/>
       <c r="AS59" s="10"/>
     </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>80</v>
       </c>
       <c r="AD60" s="10"/>
@@ -7619,8 +6856,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>81</v>
       </c>
       <c r="AD61" s="10"/>
@@ -7630,8 +6867,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>82</v>
       </c>
       <c r="AD62" s="10"/>
@@ -7641,8 +6878,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC63" s="14" t="s">
+    <row r="63" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC63" s="9" t="s">
         <v>83</v>
       </c>
       <c r="AD63" s="10"/>
@@ -7652,30 +6889,30 @@
       <c r="AP63" s="10"/>
       <c r="AS63" s="10"/>
     </row>
-    <row r="64" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC64" s="16" t="s">
+    <row r="64" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD64" s="26"/>
-      <c r="AG64" s="26"/>
-      <c r="AJ64" s="26"/>
-      <c r="AM64" s="26"/>
-      <c r="AP64" s="26"/>
-      <c r="AS64" s="26"/>
-    </row>
-    <row r="65" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC65" s="18" t="s">
+      <c r="AD64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AJ64" s="20"/>
+      <c r="AM64" s="20"/>
+      <c r="AP64" s="20"/>
+      <c r="AS64" s="20"/>
+    </row>
+    <row r="65" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD65" s="27"/>
-      <c r="AG65" s="27"/>
-      <c r="AJ65" s="27"/>
-      <c r="AM65" s="27"/>
-      <c r="AP65" s="27"/>
-      <c r="AS65" s="27"/>
-    </row>
-    <row r="66" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC66" s="14" t="s">
+      <c r="AD65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AS65" s="21"/>
+    </row>
+    <row r="66" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC66" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD66" s="10"/>
@@ -7685,8 +6922,8 @@
       <c r="AP66" s="10"/>
       <c r="AS66" s="10"/>
     </row>
-    <row r="67" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC67" s="14" t="s">
+    <row r="67" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC67" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD67" s="10"/>
@@ -7696,8 +6933,8 @@
       <c r="AP67" s="10"/>
       <c r="AS67" s="10"/>
     </row>
-    <row r="68" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC68" s="14" t="s">
+    <row r="68" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD68" s="10"/>
@@ -7707,8 +6944,8 @@
       <c r="AP68" s="10"/>
       <c r="AS68" s="10"/>
     </row>
-    <row r="69" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC69" s="15" t="s">
+    <row r="69" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC69" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD69" s="12"/>
@@ -7718,73 +6955,16 @@
       <c r="AP69" s="12"/>
       <c r="AS69" s="12"/>
     </row>
-    <row r="70" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AD70" s="25"/>
-      <c r="AG70" s="25"/>
-      <c r="AJ70" s="25"/>
-      <c r="AM70" s="25"/>
-      <c r="AP70" s="25"/>
-      <c r="AS70" s="25"/>
-    </row>
-    <row r="71" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AD70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AS70" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OwVgI+TgLgPNAYOLJUYqazAhhX30YdtmZcIqIRAMD85Pkaz6XrZ/rtnReBuSECbWJapIHlxEKfFF1SwpR6Oizg==" saltValue="T7ymkPRL3BhfxB4/nZkOTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OF4WqCHYXFZUcb7qWRyVZs2RDw5xe4dlOXd7pS9/5pkvwmzvlp2mqgiFylKXKXRwFKyT28cUbvdmJXx925Hd5Q==" saltValue="dd1y8E98Dtg/K3/Hlf85yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -7794,119 +6974,67 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="29" ySplit="4" topLeftCell="AD15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="17" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="17" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="17" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="17" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" hidden="1" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD1">
+        <v>9</v>
+      </c>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" hidden="1" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f ca="1">COUNTA(AD5:AD36)</f>
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>9</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>1</v>
@@ -7915,7 +7043,7 @@
         <v>121</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -7923,16 +7051,15 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
         <v>117</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AD5" s="8">
-        <f ca="1">RANDBETWEEN(15,21)</f>
-        <v>18</v>
+      <c r="AD5" s="26" t="s">
+        <v>244</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -7940,8 +7067,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -7952,8 +7079,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -7964,8 +7091,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -7976,8 +7103,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="27"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -7988,8 +7115,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -8000,8 +7127,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -8012,8 +7139,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -8024,8 +7151,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -8036,8 +7163,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="27"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -8048,8 +7175,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -8060,8 +7187,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -8072,8 +7199,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -8084,8 +7211,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -8096,8 +7223,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -8108,8 +7235,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -8120,8 +7247,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
         <v>118</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -8134,8 +7261,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -8146,8 +7273,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -8158,8 +7285,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27"/>
       <c r="AC24" s="9" t="s">
         <v>18</v>
       </c>
@@ -8170,8 +7297,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
       <c r="AC25" s="9" t="s">
         <v>18</v>
       </c>
@@ -8182,8 +7309,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -8194,8 +7321,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -8206,8 +7333,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -8218,8 +7345,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -8230,8 +7357,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -8242,8 +7369,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -8254,8 +7381,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -8266,8 +7393,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="27"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -8278,8 +7405,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -8290,8 +7417,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -8302,8 +7429,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -8314,10 +7441,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" s="24" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -8327,7 +7454,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -8338,12 +7465,12 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG39" s="8"/>
       <c r="AJ39" s="8"/>
@@ -8351,13 +7478,12 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD40" s="10" t="str">
-        <f>"Escribe todo lo que sepas del Siglo "&amp;ROMAN(Dato_01)&amp;"."</f>
-        <v>Escribe todo lo que sepas del Siglo .</v>
+      <c r="AD40" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="AG40" s="10"/>
       <c r="AJ40" s="10"/>
@@ -8365,8 +7491,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>85</v>
       </c>
       <c r="AD41" s="10" t="s">
@@ -8378,12 +7504,12 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>86</v>
       </c>
       <c r="AD42" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG42" s="10"/>
       <c r="AJ42" s="10"/>
@@ -8391,8 +7517,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>87</v>
       </c>
       <c r="AD43" s="10">
@@ -8404,8 +7530,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AD44" s="10">
@@ -8417,12 +7543,12 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>89</v>
       </c>
       <c r="AD45" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG45" s="10"/>
       <c r="AJ45" s="10"/>
@@ -8430,12 +7556,12 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>90</v>
       </c>
       <c r="AD46" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG46" s="10"/>
       <c r="AJ46" s="10"/>
@@ -8443,123 +7569,45 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC47" s="15" t="s">
+    <row r="47" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC47" s="11" t="s">
         <v>91</v>
       </c>
       <c r="AD47" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
+        <v>183</v>
+      </c>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
       <c r="AG47" s="12"/>
-      <c r="AH47" s="20"/>
-      <c r="AI47" s="20"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
       <c r="AJ47" s="12"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20"/>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="17"/>
       <c r="AM47" s="12"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
+      <c r="AN47" s="17"/>
+      <c r="AO47" s="17"/>
       <c r="AP47" s="12"/>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
+      <c r="AQ47" s="17"/>
+      <c r="AR47" s="17"/>
       <c r="AS47" s="12"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC48" s="21" t="s">
+    <row r="48" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC48" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AD48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AP48" s="22"/>
-      <c r="AS48" s="22"/>
-    </row>
-    <row r="49" spans="29:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AC49" s="25"/>
-    </row>
-    <row r="50" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="AD48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AJ48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AP48" s="19"/>
+      <c r="AS48" s="19"/>
+    </row>
+    <row r="49" spans="29:29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="AC49" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="19CFxUagIPb7PP+cSQbFVs9HDgtlX2QpoSNtQRyph6yfGG6TWwUyZT+qbpmQNHYgaPUAPVFWrtDbUCYkWwTj4A==" saltValue="S4BxF7PH6JPwM0zg3TuOuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="44GY6EUN6CnFhh0k94oIlIEjDUJ8S5qqo2XL+MPwmnBLGnk0WIYhiwnWWTcOzJn74K6Fyhr5KLyllfQ/VRz23g==" saltValue="kGmGTIvnRn4mtnWiA2LvQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -8569,119 +7617,67 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Hoja8"/>
-  <dimension ref="A1:AS139"/>
+  <dimension ref="A1:AS47"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="28" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
+    <col min="2" max="28" width="11.41015625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD1">
+        <v>3</v>
+      </c>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC2"/>
-      <c r="AD2">
-        <f ca="1">COUNTA(AD5:AD36)</f>
-        <v>8</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>3</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>1</v>
@@ -8690,7 +7686,7 @@
         <v>121</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -8698,16 +7694,15 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
         <v>120</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AD5" s="8">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+      <c r="AD5" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -8715,14 +7710,13 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD6" s="10">
-        <f ca="1">Dato_01+RANDBETWEEN(1,5)</f>
-        <v>4</v>
+      <c r="AD6" s="24" t="s">
+        <v>246</v>
       </c>
       <c r="AG6" s="10"/>
       <c r="AJ6" s="10"/>
@@ -8730,14 +7724,13 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD7" s="10">
-        <f ca="1">Dato_01+RANDBETWEEN(6,10)</f>
-        <v>9</v>
+      <c r="AD7" s="24" t="s">
+        <v>247</v>
       </c>
       <c r="AG7" s="10"/>
       <c r="AJ7" s="10"/>
@@ -8745,14 +7738,13 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD8" s="10">
-        <f ca="1">Dato_01+RANDBETWEEN(20,25)</f>
-        <v>25</v>
+      <c r="AD8" s="24" t="s">
+        <v>248</v>
       </c>
       <c r="AG8" s="10"/>
       <c r="AJ8" s="10"/>
@@ -8760,8 +7752,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="27"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -8772,8 +7764,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -8784,8 +7776,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -8796,8 +7788,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -8808,8 +7800,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -8820,8 +7812,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="27"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -8832,8 +7824,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -8844,8 +7836,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -8856,8 +7848,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -8868,8 +7860,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -8880,8 +7872,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -8892,8 +7884,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -8904,16 +7896,15 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
         <v>119</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AD21" s="10" t="str">
-        <f>ROMAN(AB21)</f>
-        <v/>
+      <c r="AD21" s="24" t="s">
+        <v>249</v>
       </c>
       <c r="AG21" s="10"/>
       <c r="AJ21" s="10"/>
@@ -8921,14 +7912,13 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AD22" s="10" t="str">
-        <f>ROMAN(AB22)</f>
-        <v/>
+      <c r="AD22" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AJ22" s="10"/>
@@ -8936,14 +7926,13 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AD23" s="10" t="str">
-        <f>ROMAN(AB23)</f>
-        <v/>
+      <c r="AD23" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="AG23" s="10"/>
       <c r="AJ23" s="10"/>
@@ -8951,14 +7940,13 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AD24" s="10" t="str">
-        <f>ROMAN(AB24)</f>
-        <v/>
+      <c r="AD24" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="AG24" s="10"/>
       <c r="AJ24" s="10"/>
@@ -8966,8 +7954,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -8978,8 +7966,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -8990,8 +7978,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -9002,8 +7990,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -9014,8 +8002,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -9026,8 +8014,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -9038,8 +8026,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -9050,8 +8038,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -9062,8 +8050,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="27"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -9074,8 +8062,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -9086,8 +8074,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -9098,8 +8086,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -9110,10 +8098,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -9123,23 +8111,23 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AD38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AS38" s="29"/>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AM38" s="23"/>
+      <c r="AP38" s="23"/>
+      <c r="AS38" s="23"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG39" s="8"/>
       <c r="AJ39" s="8"/>
@@ -9147,19 +8135,12 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD40" s="10" t="str">
-        <f>"Trabajando con Números Romanos:&lt;br&gt;&lt;br&gt;
-1. Selecciona el Número Romano de "&amp;Dato_01&amp;" {1:MC:%100%"&amp;Dato_17&amp;"#Muy Bien~%-50%"&amp;Dato_18&amp;"#Debes estudiar más~%-50%"&amp;Dato_19&amp;"#Debes estudiar más~%-50%"&amp;Dato_20&amp;"#Debes estudiar más}&lt;br&gt;&lt;br&gt;
-2. Escribe el Número Romano de "&amp;Dato_04&amp;" {1:SA:%100%"&amp;Dato_20&amp;"#Muy bien~%50%"&amp;LOWER(Dato_20)&amp;"#Ten cuidado y escribe en Mayúsculas}&lt;br&gt;&lt;br&gt;
-3. Escribe el número de "&amp;Dato_19&amp;"{1:NUMERICAL:%100%"&amp;Dato_03&amp;":0#Muy bien~%-50%"&amp;Dato_02&amp;":0#Debes estudiar mas}"</f>
-        <v>Trabajando con Números Romanos:&lt;br&gt;&lt;br&gt;
-1. Selecciona el Número Romano de  {1:MC:%100%#Muy Bien~%-50%#Debes estudiar más~%-50%#Debes estudiar más~%-50%#Debes estudiar más}&lt;br&gt;&lt;br&gt;
-2. Escribe el Número Romano de  {1:SA:%100%#Muy bien~%50%#Ten cuidado y escribe en Mayúsculas}&lt;br&gt;&lt;br&gt;
-3. Escribe el número de {1:NUMERICAL:%100%:0#Muy bien~%-50%:0#Debes estudiar mas}</v>
+      <c r="AD40" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="AG40" s="10"/>
       <c r="AJ40" s="10"/>
@@ -9167,7 +8148,7 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC41" s="9" t="s">
         <v>34</v>
       </c>
@@ -9180,19 +8161,19 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="18" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AP42" s="27"/>
-      <c r="AS42" s="27"/>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+      <c r="AD42" s="21"/>
+      <c r="AG42" s="21"/>
+      <c r="AJ42" s="21"/>
+      <c r="AM42" s="21"/>
+      <c r="AP42" s="21"/>
+      <c r="AS42" s="21"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD43" s="10"/>
@@ -9202,8 +8183,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD44" s="10"/>
@@ -9213,8 +8194,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD45" s="10"/>
@@ -9224,8 +8205,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC46" s="15" t="s">
+    <row r="46" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC46" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD46" s="12"/>
@@ -9235,101 +8216,9 @@
       <c r="AP46" s="12"/>
       <c r="AS46" s="12"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PJyUkMEe6oxH6J0L3XF+H22cBnS+SvNtJ7wXFBnetqNVYc7Z0UyrZTdbi3wUYZfDM75FE+p/sVS9f3z0qz5PfQ==" saltValue="SuEGW/F/xZcOXs5M0AhQmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9aQQpAsDYyDahEWTLct5CLvlXjZ+/kLuGa+GNirJaeb3hSuqxMdkpdH5QPADfVeipswfgpeTvPA1jyQ1gtQ6bg==" saltValue="Wg5WFvfHQf/eWm1+28204Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
